--- a/Assets/Arts/Excels/ScenarioBattle.xlsx
+++ b/Assets/Arts/Excels/ScenarioBattle.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\OjousamaCard\Assets\Arts\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E540A83B-FA9B-4B16-B9B9-741039C40238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A4D742-1575-4434-87E5-BD59AF4154D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="16200" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sentences" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>endOfTalk</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>message</t>
     <phoneticPr fontId="1"/>
@@ -41,13 +38,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>なんて面倒なんだ……</t>
-    <rPh sb="3" eb="5">
-      <t>メンドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -76,6 +66,55 @@
   </si>
   <si>
     <t>Right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんな風に、行数が増えると自動で吹き出しが大きくなるよ</t>
+    <rPh sb="3" eb="4">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが終わると、戦闘が始まるよ</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんて面倒なんだ……</t>
+  </si>
+  <si>
+    <t>BattleStart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ivent</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -112,7 +151,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,21 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -433,84 +471,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
     <col min="5" max="7" width="13"/>
-    <col min="8" max="8" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
